--- a/Text Statistics and BertScore analysis.xlsx
+++ b/Text Statistics and BertScore analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmuedu-my.sharepoint.com/personal/eadejumo_gmu_edu/Documents/LLMs for documentation and onboarding/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahadejumo/Document/CS701/experiment/LLMs-for-Improving-Onboarding-Documentation-Accessibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1770" documentId="8_{0F83B873-BD2C-A445-BE40-2B52A4AB6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFD9819E-BBA8-0944-8264-DD6F76BBDB1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AF05C1-1BEC-F340-AD00-DD70D825524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="660" windowWidth="24200" windowHeight="16680" xr2:uid="{FE24959E-1721-CF45-B211-D5A0B5D92317}"/>
+    <workbookView xWindow="4600" yWindow="500" windowWidth="24200" windowHeight="16680" xr2:uid="{FE24959E-1721-CF45-B211-D5A0B5D92317}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Original</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Gemini Simplified</t>
-  </si>
-  <si>
-    <t>Excluding outliner</t>
   </si>
   <si>
     <t>0.8326373100280762,</t>
@@ -239,10 +236,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -260,10 +257,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B6F7D-9E24-6D41-9970-1B3594B83FD9}">
   <dimension ref="A1:BA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AW56" sqref="AW56"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
@@ -742,71 +735,68 @@
       </c>
     </row>
     <row r="2" spans="1:53">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
       <c r="AZ2" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -1604,7 +1594,7 @@
         <v>11.3292049146132</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -1924,7 +1914,7 @@
         <v>118</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -2568,7 +2558,7 @@
         <v>9.5669888321147205</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -2729,7 +2719,7 @@
         <v>9.75</v>
       </c>
       <c r="BA14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:52">
@@ -2885,66 +2875,66 @@
       </c>
     </row>
     <row r="20" spans="1:52">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11" t="s">
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11" t="s">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="11"/>
-      <c r="AP20" s="11" t="s">
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
-      <c r="AY20" s="11"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
       <c r="AZ20" s="8" t="s">
         <v>16</v>
       </c>
@@ -4858,7 +4848,7 @@
       </c>
     </row>
     <row r="33" spans="1:53">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="4">
@@ -5017,7 +5007,7 @@
       </c>
     </row>
     <row r="34" spans="1:53">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="4">
@@ -5033,7 +5023,7 @@
         <v>0.84979432821273804</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" s="4">
         <v>0.91796058416366499</v>
@@ -5176,7 +5166,7 @@
       </c>
     </row>
     <row r="35" spans="1:53">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="4">
@@ -5488,66 +5478,66 @@
     </row>
     <row r="39" spans="1:53">
       <c r="A39" s="3"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12" t="s">
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12" t="s">
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="12"/>
-      <c r="AL39" s="12"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="12"/>
-      <c r="AO39" s="12"/>
-      <c r="AP39" s="12" t="s">
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AQ39" s="12"/>
-      <c r="AR39" s="12"/>
-      <c r="AS39" s="12"/>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="12"/>
-      <c r="AW39" s="12"/>
-      <c r="AX39" s="12"/>
-      <c r="AY39" s="12"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
       <c r="AZ39" s="8" t="s">
         <v>1</v>
       </c>
@@ -5869,7 +5859,7 @@
         <v>8.8960000000000008</v>
       </c>
       <c r="BA41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:53">
@@ -6030,7 +6020,7 @@
         <v>5.7337114016501101</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:53">
@@ -6191,7 +6181,7 @@
         <v>9.6971713993919995</v>
       </c>
       <c r="BA43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:53">
@@ -6352,7 +6342,7 @@
         <v>8.5602586745599396</v>
       </c>
       <c r="BA44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:53">
@@ -6831,7 +6821,7 @@
         <v>220.57730714228799</v>
       </c>
       <c r="BA47" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:53">
@@ -6992,7 +6982,7 @@
         <v>20.353579480773</v>
       </c>
       <c r="BA48" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:53">
@@ -7153,7 +7143,7 @@
         <v>16.982079546057498</v>
       </c>
       <c r="BA49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:53">
@@ -7473,11 +7463,11 @@
         <v>5.3151940293326003</v>
       </c>
       <c r="BA51" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:53">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="4">
@@ -7636,7 +7626,7 @@
       </c>
     </row>
     <row r="53" spans="1:53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4">
@@ -7795,7 +7785,7 @@
       </c>
     </row>
     <row r="54" spans="1:53">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="4">
@@ -8123,6 +8113,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:AE2"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:AE39"/>
     <mergeCell ref="AF39:AO39"/>
     <mergeCell ref="AP39:AY39"/>
     <mergeCell ref="AF2:AO2"/>
@@ -8131,13 +8128,6 @@
     <mergeCell ref="V20:AE20"/>
     <mergeCell ref="AF20:AO20"/>
     <mergeCell ref="AP20:AY20"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="V2:AE2"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:AE39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
